--- a/data/trans_orig/P16A18-Nacimiento-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Nacimiento-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -929,7 +929,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1318,7 +1318,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1707,7 +1707,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
